--- a/Documents/Projektskizze/Grobplanung.xlsx
+++ b/Documents/Projektskizze/Grobplanung.xlsx
@@ -15,9 +15,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Ziele</t>
+  </si>
+  <si>
+    <t>Inception 1</t>
+  </si>
+  <si>
+    <t>Elaboration 1</t>
+  </si>
+  <si>
+    <t>Construction 1</t>
+  </si>
+  <si>
+    <t>Construction 2</t>
+  </si>
+  <si>
+    <t>Transition 1</t>
+  </si>
+  <si>
+    <t>Iterationsdauer: 2 -3 Wochen</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Projektskizze erstellt, IDE eingerichtet, erste Ausformulierung der Anwendungsfälle, erster Entwurf der Architektur</t>
+  </si>
+  <si>
+    <t>Anwendungsfälle definiert, Architektur und Domänenmodell fertig, GUI Designkonzept/Prototyp erstellt, 10% der Programmierungstasks abgeschlossen</t>
+  </si>
+  <si>
+    <t>90% der Programmierungstasks abgeschlossen, GUI Fertig</t>
+  </si>
+  <si>
+    <t>50% der Programmierungstasks abgeschlossen</t>
+  </si>
+  <si>
+    <t>100% der Programmierungstasks abgeschlossen, Testing, Dokumentation und Abschlussarbeiten</t>
+  </si>
+  <si>
+    <t>Meilensteine:</t>
+  </si>
+  <si>
+    <t>Präsentation Projektskizze</t>
+  </si>
+  <si>
+    <t>Präsentation Anforderungen</t>
+  </si>
+  <si>
+    <t>Präsentationen Design</t>
+  </si>
+  <si>
+    <t>Schlusspräsentationen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,8 +99,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39,8 +121,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -48,19 +136,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -68,6 +321,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:E8" totalsRowShown="0">
+  <autoFilter ref="C3:E8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Phase" dataDxfId="2"/>
+    <tableColumn id="2" name="Iteration" dataDxfId="1"/>
+    <tableColumn id="3" name="Ziele" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,59 +622,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:N12"/>
+  <dimension ref="C3:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="65.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
         <v>41905</v>
       </c>
-      <c r="D7" s="2">
+      <c r="J13" s="2">
         <v>41912</v>
       </c>
-      <c r="E7" s="1">
+      <c r="K13" s="1">
         <v>41919</v>
       </c>
-      <c r="F7" s="1">
+      <c r="L13" s="1">
         <v>41926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M13" s="2">
         <v>41933</v>
       </c>
-      <c r="H7" s="1">
+      <c r="N13" s="1">
         <v>41940</v>
       </c>
-      <c r="I7" s="1">
+      <c r="O13" s="1">
         <v>41947</v>
       </c>
-      <c r="J7" s="1">
+      <c r="P13" s="1">
         <v>41954</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q13" s="2">
         <v>41961</v>
       </c>
-      <c r="L7" s="1">
+      <c r="R13" s="1">
         <v>41968</v>
       </c>
-      <c r="M7" s="1">
+      <c r="S13" s="1">
         <v>41975</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T13" s="2">
         <v>41982</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="18">
+        <v>41905</v>
+      </c>
+      <c r="J15" s="13">
         <v>41912</v>
       </c>
+      <c r="K15" s="19">
+        <v>41919</v>
+      </c>
+      <c r="L15" s="20">
+        <v>41926</v>
+      </c>
+      <c r="M15" s="13">
+        <v>41933</v>
+      </c>
+      <c r="N15" s="19">
+        <v>41940</v>
+      </c>
+      <c r="O15" s="20">
+        <v>41947</v>
+      </c>
+      <c r="P15" s="20">
+        <v>41954</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>41961</v>
+      </c>
+      <c r="R15" s="19">
+        <v>41968</v>
+      </c>
+      <c r="S15" s="20">
+        <v>41975</v>
+      </c>
+      <c r="T15" s="13">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="9"/>
+      <c r="J17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8">
+        <v>41905</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="8">
+        <v>41933</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="8">
+        <v>41961</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G23" s="8">
+        <v>41982</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="N16:O16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
